--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E43C07D-4CA1-4D67-A477-5AAB4924EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCAA58E-7C6A-4676-B4F7-B2A57C297928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t xml:space="preserve">1 rinc </t>
+  </si>
+  <si>
+    <t>35/10ns</t>
+  </si>
+  <si>
+    <t>40/10ns</t>
+  </si>
+  <si>
+    <t>50/10ns</t>
+  </si>
+  <si>
+    <t>55/10ns</t>
+  </si>
+  <si>
+    <t>60/10ns</t>
+  </si>
+  <si>
+    <t>100/10ns</t>
+  </si>
+  <si>
+    <t>500/10ns</t>
   </si>
 </sst>
 </file>
@@ -155,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,11 +229,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -221,6 +255,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B67E08E-A7C8-491A-9256-41A4D8E3E7BA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,9 +582,13 @@
     <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,13 +613,33 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -608,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -637,7 +697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -666,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>

--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCAA58E-7C6A-4676-B4F7-B2A57C297928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0AE418-DB38-46B2-959C-D8612C3E59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -141,6 +141,41 @@
   </si>
   <si>
     <t>500/10ns</t>
+  </si>
+  <si>
+    <t>10/10ns</t>
+  </si>
+  <si>
+    <t>2 winc</t>
+  </si>
+  <si>
+    <t>n/a (no wfull 
+in this)</t>
+  </si>
+  <si>
+    <t>190ns</t>
+  </si>
+  <si>
+    <t>10/20ns</t>
+  </si>
+  <si>
+    <t>10/11ns</t>
+  </si>
+  <si>
+    <t>10/15ns</t>
+  </si>
+  <si>
+    <t>7 winc</t>
+  </si>
+  <si>
+    <t>380ns</t>
+  </si>
+  <si>
+    <t>2350ns</t>
+  </si>
+  <si>
+    <t>1 rinc 
+(2 rinc)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,28 +210,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -206,38 +238,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -246,17 +250,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B67E08E-A7C8-491A-9256-41A4D8E3E7BA}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,178 +585,251 @@
     <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
     <col min="10" max="10" width="10.36328125" customWidth="1"/>
     <col min="11" max="11" width="9.81640625" customWidth="1"/>
     <col min="12" max="12" width="10.36328125" customWidth="1"/>
     <col min="13" max="13" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="M3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0AE418-DB38-46B2-959C-D8612C3E59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF587E-39A8-4AD5-90F9-859D75FEF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -176,6 +176,23 @@
   <si>
     <t>1 rinc 
 (2 rinc)</t>
+  </si>
+  <si>
+    <t>5 winc</t>
+  </si>
+  <si>
+    <t>n/a 
+(no wfull 
+in this)</t>
+  </si>
+  <si>
+    <t>285ns</t>
+  </si>
+  <si>
+    <t>209ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 winc </t>
   </si>
 </sst>
 </file>
@@ -577,7 +594,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,8 +676,12 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
@@ -703,8 +724,12 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
@@ -747,8 +772,12 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
@@ -791,8 +820,12 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>42</v>
       </c>

--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF587E-39A8-4AD5-90F9-859D75FEF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0887CAE-7529-45F8-A9AC-F5C27F48495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t xml:space="preserve">3 winc </t>
+  </si>
+  <si>
+    <t>11/10ns</t>
+  </si>
+  <si>
+    <t>15/10ns</t>
+  </si>
+  <si>
+    <t>20/10ns</t>
+  </si>
+  <si>
+    <t>250ns</t>
+  </si>
+  <si>
+    <t>2winc</t>
   </si>
 </sst>
 </file>
@@ -240,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,20 +278,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B67E08E-A7C8-491A-9256-41A4D8E3E7BA}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,8 +660,8 @@
     <col min="13" max="13" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -647,222 +697,291 @@
       <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:23" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="M4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="N5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0887CAE-7529-45F8-A9AC-F5C27F48495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C39A41-1E0D-4C8E-BB64-C55BFC596C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>2winc</t>
+  </si>
+  <si>
+    <t>310ns</t>
+  </si>
+  <si>
+    <t>1winc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510ns </t>
+  </si>
+  <si>
+    <t>570ns</t>
+  </si>
+  <si>
+    <t>715ns</t>
   </si>
 </sst>
 </file>
@@ -643,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B67E08E-A7C8-491A-9256-41A4D8E3E7BA}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,10 +792,18 @@
       <c r="O2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="T2" s="10"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -974,10 +997,18 @@
       <c r="O5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>

--- a/AsynchronousFIFOTimeData.xlsx
+++ b/AsynchronousFIFOTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OAkun\Documents\GitHub\Asynchronous-FIFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C39A41-1E0D-4C8E-BB64-C55BFC596C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3325F03-6F00-4F1A-8288-CC42E5EE8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01E9DD4F-C4FF-4FCE-B386-2429FDDB27D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>wclk/rclk</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>715ns</t>
+  </si>
+  <si>
+    <t>770ns</t>
+  </si>
+  <si>
+    <t>830ns</t>
+  </si>
+  <si>
+    <t>1350ns</t>
+  </si>
+  <si>
+    <t>6550ns</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,10 +816,18 @@
       <c r="S2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="T2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:23" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1009,10 +1029,18 @@
       <c r="S5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="T5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
